--- a/resource/Alpabet.xlsx
+++ b/resource/Alpabet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4acfe467ecdc9ea6/Document/6th Form/pi/NCC_2018/resource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koji\OneDrive\Document\6th Form\pi\NCC_2018\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{799611B7-2438-44DB-BBFC-E754FBA59045}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{FA6BE33B-1A76-4D9D-8BBA-B10DBAD42093}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{799611B7-2438-44DB-BBFC-E754FBA59045}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{BE963415-EA0F-47CA-BE9B-9AA1B7585901}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8080" xr2:uid="{B3B5913D-D0F6-455E-A523-D7347F9AAFE5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>a</t>
   </si>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CC54C3-322B-4BE2-8B53-A2CB107D0C36}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,82 +647,82 @@
     </row>
     <row r="2" spans="1:26" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.5">
@@ -734,23 +734,23 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="21" x14ac:dyDescent="0.5">
@@ -834,66 +834,58 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
       <c r="W5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
